--- a/Datos/CUENTA_REFERENCIA.xlsx
+++ b/Datos/CUENTA_REFERENCIA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Projecto_ABD\ABD\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ABD\ABD\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7DD4DA-9F43-4FE0-949D-762E2AA1C0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2595" windowWidth="24240" windowHeight="13140" xr2:uid="{F718546D-DCBF-4FE8-939E-8886BC99044B}"/>
+    <workbookView xWindow="28680" yWindow="2592" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>IBAN</t>
   </si>
@@ -67,37 +66,13 @@
     <t>ES32 1226 347 77987</t>
   </si>
   <si>
-    <t>ES32 5829 354  1000</t>
-  </si>
-  <si>
-    <t>ES32 6784 345 0000</t>
-  </si>
-  <si>
-    <t>ES32 893 455 2333</t>
-  </si>
-  <si>
     <t>Santander</t>
   </si>
   <si>
     <t>CajaRural</t>
   </si>
   <si>
-    <t>UniCaja</t>
-  </si>
-  <si>
-    <t>Kutxabank</t>
-  </si>
-  <si>
-    <t>BBVA</t>
-  </si>
-  <si>
     <t>Madrid</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Bilbao</t>
   </si>
   <si>
     <t>España</t>
@@ -109,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,22 +430,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885BB1C2-F7BF-4074-8DD2-C8F983DF4892}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,107 +471,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2">
         <v>23452</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>776547</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>5678</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>345</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>8890</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos/CUENTA_REFERENCIA.xlsx
+++ b/Datos/CUENTA_REFERENCIA.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,6 +443,7 @@
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -485,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>23452</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
